--- a/results/LeNet9 results.xlsx
+++ b/results/LeNet9 results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\SUSTech-Coded-Computation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94BFE7D-8420-4C9E-914B-C797862AC6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27232192-34E8-4112-9637-818CFB998FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="336" windowWidth="11424" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>Base Model: LeNet9
 TASK: CIFAR-10
 Encoder: Conv
-Decoder: Conv</t>
+Decoder: MLP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +297,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,8 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:K47"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,19 +607,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -654,13 +657,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
         <v>3</v>
       </c>
       <c r="D3" s="2">
@@ -669,7 +672,7 @@
       <c r="E3" s="2">
         <v>0.98609999999999998</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3">
@@ -692,16 +695,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E4" s="2">
         <v>0.98609999999999998</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
@@ -722,16 +725,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E5" s="2">
         <v>0.98609999999999998</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="3">
         <v>2</v>
       </c>
@@ -752,16 +755,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E6" s="2">
         <v>0.98609999999999998</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="3">
         <v>3</v>
       </c>
@@ -782,16 +785,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E7" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3">
@@ -814,16 +817,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E8" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4">
         <v>1</v>
       </c>
@@ -844,16 +847,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E9" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -874,16 +877,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E10" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3">
         <v>3</v>
       </c>
@@ -939,13 +942,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>6</v>
       </c>
       <c r="D12" s="2">
@@ -954,7 +957,7 @@
       <c r="E12" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="3">
@@ -977,16 +980,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E13" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="7">
         <v>1</v>
       </c>
@@ -1007,16 +1010,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E14" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="7">
         <v>2</v>
       </c>
@@ -1037,16 +1040,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E15" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3">
         <v>3</v>
       </c>
@@ -1067,16 +1070,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E16" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3">
         <v>4</v>
       </c>
@@ -1097,16 +1100,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E17" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3">
         <v>5</v>
       </c>
@@ -1127,16 +1130,16 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="2">
         <v>0.99739999999999995</v>
       </c>
       <c r="E18" s="2">
         <v>0.98519999999999996</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3">
         <v>6</v>
       </c>
@@ -1157,16 +1160,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E19" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="3">
@@ -1189,16 +1192,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E20" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="4">
         <v>1</v>
       </c>
@@ -1219,16 +1222,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E21" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="4">
         <v>2</v>
       </c>
@@ -1249,16 +1252,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E22" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="3">
         <v>3</v>
       </c>
@@ -1279,16 +1282,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E23" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3">
         <v>4</v>
       </c>
@@ -1309,16 +1312,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E24" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="3">
         <v>5</v>
       </c>
@@ -1339,16 +1342,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2">
         <v>0.99060000000000004</v>
       </c>
       <c r="E25" s="2">
         <v>0.98270000000000002</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3">
         <v>6</v>
       </c>
@@ -1382,19 +1385,19 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1432,13 +1435,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
         <v>3</v>
       </c>
       <c r="D29" s="2">
@@ -1447,7 +1450,7 @@
       <c r="E29" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="3">
@@ -1470,16 +1473,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E30" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="7">
         <v>1</v>
       </c>
@@ -1500,16 +1503,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E31" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="3">
         <v>2</v>
       </c>
@@ -1530,16 +1533,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E32" s="2">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="3">
         <v>3</v>
       </c>
@@ -1560,16 +1563,16 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E33" s="2">
         <v>0.90749999999999997</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="3">
@@ -1592,16 +1595,16 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E34" s="2">
         <v>0.90749999999999997</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="4">
         <v>1</v>
       </c>
@@ -1622,16 +1625,16 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E35" s="2">
         <v>0.90749999999999997</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="3">
         <v>2</v>
       </c>
@@ -1652,16 +1655,16 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E36" s="2">
         <v>0.90749999999999997</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="3">
         <v>3</v>
       </c>
@@ -1717,13 +1720,13 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>4</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>2</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="14">
         <v>6</v>
       </c>
       <c r="D38" s="2">
@@ -1732,7 +1735,7 @@
       <c r="E38" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="3">
@@ -1755,16 +1758,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E39" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="7">
         <v>1</v>
       </c>
@@ -1785,16 +1788,16 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E40" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="7">
         <v>2</v>
       </c>
@@ -1815,16 +1818,16 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E41" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3">
         <v>3</v>
       </c>
@@ -1845,16 +1848,16 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E42" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3">
         <v>4</v>
       </c>
@@ -1875,16 +1878,16 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E43" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3">
         <v>5</v>
       </c>
@@ -1905,16 +1908,16 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="2">
         <v>0.95840000000000003</v>
       </c>
       <c r="E44" s="2">
         <v>0.94810000000000005</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="3">
         <v>6</v>
       </c>
@@ -1935,16 +1938,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E45" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="3">
@@ -1967,16 +1970,16 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E46" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="4">
         <v>1</v>
       </c>
@@ -1997,16 +2000,16 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E47" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="4">
         <v>2</v>
       </c>
@@ -2027,16 +2030,16 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E48" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="3">
         <v>3</v>
       </c>
@@ -2057,16 +2060,16 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E49" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="3">
         <v>4</v>
       </c>
@@ -2087,16 +2090,16 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E50" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="3">
         <v>5</v>
       </c>
@@ -2117,16 +2120,16 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="2">
         <v>0.91180000000000005</v>
       </c>
       <c r="E51" s="2">
         <v>0.9083</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="3">
         <v>6</v>
       </c>
@@ -2160,19 +2163,19 @@
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2210,13 +2213,13 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="11">
         <v>2</v>
       </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10">
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
         <v>3</v>
       </c>
       <c r="D55" s="2">
@@ -2225,7 +2228,7 @@
       <c r="E55" s="2">
         <v>0.81020000000000003</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="3">
@@ -2248,16 +2251,16 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E56" s="2">
         <v>0.81020000000000003</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="7">
         <v>1</v>
       </c>
@@ -2278,16 +2281,16 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E57" s="2">
         <v>0.81020000000000003</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="3">
         <v>2</v>
       </c>
@@ -2308,16 +2311,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E58" s="2">
         <v>0.81020000000000003</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="3">
         <v>3</v>
       </c>
@@ -2338,16 +2341,16 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E59" s="2">
         <v>0.73480000000000001</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="3">
@@ -2370,16 +2373,16 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E60" s="2">
         <v>0.73480000000000001</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="4">
         <v>1</v>
       </c>
@@ -2400,16 +2403,16 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E61" s="2">
         <v>0.73480000000000001</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="3">
         <v>2</v>
       </c>
@@ -2430,16 +2433,16 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E62" s="2">
         <v>0.73480000000000001</v>
       </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="3">
         <v>3</v>
       </c>
@@ -2495,13 +2498,13 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="A64" s="14">
         <v>4</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>2</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="14">
         <v>6</v>
       </c>
       <c r="D64" s="2">
@@ -2510,7 +2513,7 @@
       <c r="E64" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="3">
@@ -2533,16 +2536,16 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E65" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F65" s="13"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="7">
         <v>1</v>
       </c>
@@ -2563,16 +2566,16 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E66" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="7">
         <v>2</v>
       </c>
@@ -2593,16 +2596,16 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E67" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="3">
         <v>3</v>
       </c>
@@ -2623,16 +2626,16 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E68" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="3">
         <v>4</v>
       </c>
@@ -2653,16 +2656,16 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E69" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="3">
         <v>5</v>
       </c>
@@ -2683,16 +2686,16 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="2">
         <v>0.86250000000000004</v>
       </c>
       <c r="E70" s="2">
         <v>0.85509999999999997</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="3">
         <v>6</v>
       </c>
@@ -2713,16 +2716,16 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E71" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="3">
@@ -2745,16 +2748,16 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E72" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="4">
         <v>1</v>
       </c>
@@ -2775,16 +2778,16 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E73" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F73" s="13"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="4">
         <v>2</v>
       </c>
@@ -2805,16 +2808,16 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E74" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="3">
         <v>3</v>
       </c>
@@ -2835,16 +2838,16 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E75" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F75" s="13"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="3">
         <v>4</v>
       </c>
@@ -2865,16 +2868,16 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E76" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F76" s="13"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="3">
         <v>5</v>
       </c>
@@ -2895,16 +2898,16 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="2">
         <v>0.74319999999999997</v>
       </c>
       <c r="E77" s="2">
         <v>0.74390000000000001</v>
       </c>
-      <c r="F77" s="13"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="3">
         <v>6</v>
       </c>
@@ -2938,19 +2941,19 @@
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2988,174 +2991,254 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="11">
         <v>2</v>
       </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
-      <c r="C81" s="10">
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
         <v>3</v>
       </c>
       <c r="D81" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="10" t="s">
+      <c r="E81" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2">
+        <v>0.99</v>
+      </c>
       <c r="I81" s="2">
         <f>D81-H81</f>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+        <v>7.3999999999999622E-3</v>
+      </c>
+      <c r="J81" s="2">
+        <f>H81/D81</f>
+        <v>0.99258070984559854</v>
+      </c>
+      <c r="K81" s="15">
+        <f>H81/E81</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
+      <c r="E82" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="7">
         <v>1</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="8">
+        <v>0.87060000000000004</v>
+      </c>
       <c r="I82" s="8">
         <f t="shared" ref="I82:I88" si="16">D82-H82</f>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+        <v>0.12679999999999991</v>
+      </c>
+      <c r="J82" s="8">
+        <f t="shared" ref="J82:J103" si="17">H82/D82</f>
+        <v>0.87286946059755377</v>
+      </c>
+      <c r="K82" s="8">
+        <f t="shared" ref="K82:K103" si="18">H82/E82</f>
+        <v>0.87939393939393939</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="11"/>
+      <c r="E83" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="3">
         <v>2</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>0.55120000000000002</v>
+      </c>
       <c r="I83" s="2">
         <f t="shared" si="16"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+        <v>0.44619999999999993</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="17"/>
+        <v>0.55263685582514543</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="18"/>
+        <v>0.5567676767676768</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="12"/>
+      <c r="E84" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F84" s="13"/>
       <c r="G84" s="3">
         <v>3</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="2">
+        <v>0.1124</v>
+      </c>
       <c r="I84" s="2">
         <f t="shared" si="16"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="17"/>
+        <v>0.1126930018046922</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="18"/>
+        <v>0.11353535353535353</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="10" t="s">
+      <c r="E85" s="2">
+        <v>0.9859</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <v>0.9859</v>
+      </c>
       <c r="I85" s="2">
         <f t="shared" si="16"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+        <v>4.7000000000000375E-3</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="17"/>
+        <v>0.99525540076721175</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="11"/>
+      <c r="E86" s="2">
+        <v>0.9859</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="G86" s="4">
         <v>1</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="5">
+        <v>86.4</v>
+      </c>
       <c r="I86" s="5">
         <f t="shared" si="16"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+        <v>-85.409400000000005</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="17"/>
+        <v>87.219866747425812</v>
+      </c>
+      <c r="K86" s="5">
+        <f t="shared" si="18"/>
+        <v>87.635662846130444</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="11"/>
+      <c r="E87" s="2">
+        <v>0.9859</v>
+      </c>
+      <c r="F87" s="12"/>
       <c r="G87" s="3">
         <v>2</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <v>0.52990000000000004</v>
+      </c>
       <c r="I87" s="2">
         <f t="shared" si="16"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+        <v>0.4607</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="17"/>
+        <v>0.534928326266909</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="18"/>
+        <v>0.53747844608986717</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="12"/>
+      <c r="E88" s="2">
+        <v>0.9859</v>
+      </c>
+      <c r="F88" s="13"/>
       <c r="G88" s="3">
         <v>3</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2">
+        <v>0.1135</v>
+      </c>
       <c r="I88" s="2">
         <f t="shared" si="16"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="17"/>
+        <v>0.11457702402584292</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="18"/>
+        <v>0.11512323765087737</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3189,313 +3272,453 @@
         <v>9</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="14">
         <v>4</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="14">
         <v>2</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="14">
         <v>6</v>
       </c>
       <c r="D90" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="13" t="s">
+      <c r="E90" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2">
+        <v>0.98770000000000002</v>
+      </c>
       <c r="I90" s="2">
         <f>D90-H90</f>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+        <v>9.6999999999999309E-3</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="17"/>
+        <v>0.99027471425706848</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="13"/>
+      <c r="E91" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F91" s="14"/>
       <c r="G91" s="7">
         <v>1</v>
       </c>
-      <c r="H91" s="8"/>
+      <c r="H91" s="8">
+        <v>0.96819999999999995</v>
+      </c>
       <c r="I91" s="8">
-        <f t="shared" ref="I91:I103" si="17">D91-H91</f>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+        <f t="shared" ref="I91:I103" si="19">D91-H91</f>
+        <v>2.9200000000000004E-2</v>
+      </c>
+      <c r="J91" s="8">
+        <f t="shared" si="17"/>
+        <v>0.97072388209344296</v>
+      </c>
+      <c r="K91" s="8">
+        <f t="shared" si="18"/>
+        <v>0.98025716310620625</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="13"/>
+      <c r="E92" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F92" s="14"/>
       <c r="G92" s="7">
         <v>2</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="8">
+        <v>0.92090000000000005</v>
+      </c>
       <c r="I92" s="8">
+        <f t="shared" si="19"/>
+        <v>7.6499999999999901E-2</v>
+      </c>
+      <c r="J92" s="8">
         <f t="shared" si="17"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+        <v>0.92330058151193106</v>
+      </c>
+      <c r="K92" s="8">
+        <f t="shared" si="18"/>
+        <v>0.9323681279740812</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="13"/>
+      <c r="E93" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F93" s="14"/>
       <c r="G93" s="3">
         <v>3</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2">
+        <v>0.83420000000000005</v>
+      </c>
       <c r="I93" s="2">
+        <f t="shared" si="19"/>
+        <v>0.1631999999999999</v>
+      </c>
+      <c r="J93" s="2">
         <f t="shared" si="17"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+        <v>0.83637457389211955</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="18"/>
+        <v>0.84458843778475245</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="13"/>
+      <c r="E94" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F94" s="14"/>
       <c r="G94" s="3">
         <v>4</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" s="2">
+        <v>0.68159999999999998</v>
+      </c>
       <c r="I94" s="2">
+        <f t="shared" si="19"/>
+        <v>0.31579999999999997</v>
+      </c>
+      <c r="J94" s="2">
         <f t="shared" si="17"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+        <v>0.68337677962703025</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="18"/>
+        <v>0.69008808342614147</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="13"/>
+      <c r="E95" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F95" s="14"/>
       <c r="G95" s="3">
         <v>5</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="2">
+        <v>0.4234</v>
+      </c>
       <c r="I95" s="2">
+        <f t="shared" si="19"/>
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J95" s="2">
         <f t="shared" si="17"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+        <v>0.42450370964507722</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="18"/>
+        <v>0.42867267388883262</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="2">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="13"/>
+      <c r="E96" s="2">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="F96" s="14"/>
       <c r="G96" s="3">
         <v>6</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" s="2">
+        <v>9.0399999999999994E-2</v>
+      </c>
       <c r="I96" s="2">
+        <f t="shared" si="19"/>
+        <v>0.90699999999999992</v>
+      </c>
+      <c r="J96" s="2">
         <f t="shared" si="17"/>
-        <v>0.99739999999999995</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+        <v>9.0635652697012237E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="18"/>
+        <v>9.1525766933279323E-2</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="13" t="s">
+      <c r="E97" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2">
+        <v>0.98470000000000002</v>
+      </c>
       <c r="I97" s="2">
+        <f t="shared" si="19"/>
+        <v>5.9000000000000163E-3</v>
+      </c>
+      <c r="J97" s="2">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+        <v>0.99404401372905304</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="13"/>
+      <c r="E98" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F98" s="14"/>
       <c r="G98" s="4">
         <v>1</v>
       </c>
-      <c r="H98" s="5"/>
+      <c r="H98" s="5">
+        <v>0.96850000000000003</v>
+      </c>
       <c r="I98" s="5">
+        <f t="shared" si="19"/>
+        <v>2.2100000000000009E-2</v>
+      </c>
+      <c r="J98" s="5">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+        <v>0.97769028871391073</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" si="18"/>
+        <v>0.98354828881892964</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="13"/>
+      <c r="E99" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F99" s="14"/>
       <c r="G99" s="4">
         <v>2</v>
       </c>
-      <c r="H99" s="5"/>
+      <c r="H99" s="5">
+        <v>0.92179999999999995</v>
+      </c>
       <c r="I99" s="5">
+        <f t="shared" si="19"/>
+        <v>6.8800000000000083E-2</v>
+      </c>
+      <c r="J99" s="5">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+        <v>0.9305471431455683</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.93612267695744888</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="13"/>
+      <c r="E100" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F100" s="14"/>
       <c r="G100" s="3">
         <v>3</v>
       </c>
-      <c r="H100" s="2"/>
+      <c r="H100" s="2">
+        <v>0.84079999999999999</v>
+      </c>
       <c r="I100" s="2">
+        <f t="shared" si="19"/>
+        <v>0.14980000000000004</v>
+      </c>
+      <c r="J100" s="2">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+        <v>0.8487785180698566</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="18"/>
+        <v>0.85386412105209708</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="13"/>
+      <c r="E101" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F101" s="14"/>
       <c r="G101" s="3">
         <v>4</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2">
+        <v>0.70040000000000002</v>
+      </c>
       <c r="I101" s="2">
+        <f t="shared" si="19"/>
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="J101" s="2">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+        <v>0.7070462346052897</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="18"/>
+        <v>0.71128262414948717</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="13"/>
+      <c r="E102" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F102" s="14"/>
       <c r="G102" s="3">
         <v>5</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H102" s="2">
+        <v>0.4556</v>
+      </c>
       <c r="I102" s="2">
+        <f t="shared" si="19"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J102" s="2">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+        <v>0.4599232788209166</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="18"/>
+        <v>0.46267898852442368</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="2">
         <v>0.99060000000000004</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="13"/>
+      <c r="E103" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F103" s="14"/>
       <c r="G103" s="3">
         <v>6</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2">
+        <v>8.9200000000000002E-2</v>
+      </c>
       <c r="I103" s="2">
+        <f t="shared" si="19"/>
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="J103" s="2">
         <f t="shared" si="17"/>
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+        <v>9.0046436503129421E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="18"/>
+        <v>9.0585965268609722E-2</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -3533,174 +3756,254 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="11">
         <v>2</v>
       </c>
-      <c r="B107" s="10">
-        <v>1</v>
-      </c>
-      <c r="C107" s="10">
+      <c r="B107" s="11">
+        <v>1</v>
+      </c>
+      <c r="C107" s="11">
         <v>3</v>
       </c>
       <c r="D107" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="10" t="s">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="3">
         <v>0</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="2">
+        <v>0.94199999999999995</v>
+      </c>
       <c r="I107" s="2">
         <f>D107-H107</f>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+        <v>1.6400000000000081E-2</v>
+      </c>
+      <c r="J107" s="2">
+        <f>H107/D107</f>
+        <v>0.98288814691151916</v>
+      </c>
+      <c r="K107" s="15">
+        <f>H107/E107</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="11"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="7">
         <v>1</v>
       </c>
-      <c r="H108" s="8"/>
+      <c r="H108" s="8">
+        <v>0.71579999999999999</v>
+      </c>
       <c r="I108" s="8">
-        <f t="shared" ref="I108:I114" si="18">D108-H108</f>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+        <f t="shared" ref="I108:I114" si="20">D108-H108</f>
+        <v>0.24260000000000004</v>
+      </c>
+      <c r="J108" s="8">
+        <f t="shared" ref="J108:J129" si="21">H108/D108</f>
+        <v>0.74686978297161932</v>
+      </c>
+      <c r="K108" s="8">
+        <f t="shared" ref="K108:K129" si="22">H108/E108</f>
+        <v>0.75987261146496821</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="11"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F109" s="12"/>
       <c r="G109" s="3">
         <v>2</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" s="2">
+        <v>0.41220000000000001</v>
+      </c>
       <c r="I109" s="2">
-        <f t="shared" si="18"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+        <f t="shared" si="20"/>
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="21"/>
+        <v>0.43009181969949917</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="22"/>
+        <v>0.43757961783439492</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="12"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F110" s="13"/>
       <c r="G110" s="3">
         <v>3</v>
       </c>
-      <c r="H110" s="2"/>
+      <c r="H110" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I110" s="2">
-        <f t="shared" si="18"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+        <f t="shared" si="20"/>
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="21"/>
+        <v>0.10434056761268781</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="22"/>
+        <v>0.1061571125265393</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="10" t="s">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
       </c>
-      <c r="H111" s="2"/>
+      <c r="H111" s="2">
+        <v>0.90149999999999997</v>
+      </c>
       <c r="I111" s="2">
-        <f t="shared" si="18"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+        <f t="shared" si="20"/>
+        <v>1.0300000000000087E-2</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="21"/>
+        <v>0.98870366308400959</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="11"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F112" s="12"/>
       <c r="G112" s="4">
         <v>1</v>
       </c>
-      <c r="H112" s="5"/>
+      <c r="H112" s="5">
+        <v>0.68479999999999996</v>
+      </c>
       <c r="I112" s="5">
-        <f t="shared" si="18"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+        <f t="shared" si="20"/>
+        <v>0.22700000000000009</v>
+      </c>
+      <c r="J112" s="5">
+        <f t="shared" si="21"/>
+        <v>0.75104189515244568</v>
+      </c>
+      <c r="K112" s="5">
+        <f t="shared" si="22"/>
+        <v>0.75962285080421521</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="11"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F113" s="12"/>
       <c r="G113" s="3">
         <v>2</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" s="2">
+        <v>0.39040000000000002</v>
+      </c>
       <c r="I113" s="2">
-        <f t="shared" si="18"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+        <f t="shared" si="20"/>
+        <v>0.52140000000000009</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="21"/>
+        <v>0.42816407106821669</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="22"/>
+        <v>0.43305601774819752</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
       <c r="D114" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="12"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="F114" s="13"/>
       <c r="G114" s="3">
         <v>3</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I114" s="2">
-        <f t="shared" si="18"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+        <f t="shared" si="20"/>
+        <v>0.81180000000000008</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="21"/>
+        <v>0.10967317394165386</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="22"/>
+        <v>0.11092623405435387</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -3734,313 +4037,453 @@
         <v>9</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+      <c r="A116" s="14">
         <v>4</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="14">
         <v>2</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="14">
         <v>6</v>
       </c>
       <c r="D116" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="13" t="s">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" s="2">
+        <v>0.93359999999999999</v>
+      </c>
       <c r="I116" s="2">
         <f>D116-H116</f>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+        <v>2.4800000000000044E-2</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="21"/>
+        <v>0.97412353923205341</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
       <c r="D117" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F117" s="14"/>
       <c r="G117" s="7">
         <v>1</v>
       </c>
-      <c r="H117" s="8"/>
+      <c r="H117" s="8">
+        <v>0.82599999999999996</v>
+      </c>
       <c r="I117" s="8">
-        <f t="shared" ref="I117:I129" si="19">D117-H117</f>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+        <f t="shared" ref="I117:I129" si="23">D117-H117</f>
+        <v>0.13240000000000007</v>
+      </c>
+      <c r="J117" s="8">
+        <f t="shared" si="21"/>
+        <v>0.86185308848080122</v>
+      </c>
+      <c r="K117" s="8">
+        <f t="shared" si="22"/>
+        <v>0.8847472150814053</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
       <c r="D118" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F118" s="14"/>
       <c r="G118" s="7">
         <v>2</v>
       </c>
-      <c r="H118" s="8"/>
+      <c r="H118" s="8">
+        <v>0.70809999999999995</v>
+      </c>
       <c r="I118" s="8">
-        <f t="shared" si="19"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
+        <f t="shared" si="23"/>
+        <v>0.25030000000000008</v>
+      </c>
+      <c r="J118" s="8">
+        <f t="shared" si="21"/>
+        <v>0.73883555926544231</v>
+      </c>
+      <c r="K118" s="8">
+        <f t="shared" si="22"/>
+        <v>0.75846186803770343</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
       <c r="D119" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F119" s="14"/>
       <c r="G119" s="3">
         <v>3</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" s="2">
+        <v>0.56599999999999995</v>
+      </c>
       <c r="I119" s="2">
-        <f t="shared" si="19"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.39240000000000008</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="21"/>
+        <v>0.59056761268781299</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="22"/>
+        <v>0.60625535561268207</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F120" s="14"/>
       <c r="G120" s="3">
         <v>4</v>
       </c>
-      <c r="H120" s="2"/>
+      <c r="H120" s="2">
+        <v>0.45400000000000001</v>
+      </c>
       <c r="I120" s="2">
-        <f t="shared" si="19"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="21"/>
+        <v>0.47370617696160267</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="22"/>
+        <v>0.48628963153384752</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F121" s="14"/>
       <c r="G121" s="3">
         <v>5</v>
       </c>
-      <c r="H121" s="2"/>
+      <c r="H121" s="2">
+        <v>0.33429999999999999</v>
+      </c>
       <c r="I121" s="2">
-        <f t="shared" si="19"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.6241000000000001</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="21"/>
+        <v>0.34881051752921532</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="22"/>
+        <v>0.35807626392459296</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="2">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="13"/>
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F122" s="14"/>
       <c r="G122" s="3">
         <v>6</v>
       </c>
-      <c r="H122" s="2"/>
+      <c r="H122" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I122" s="2">
-        <f t="shared" si="19"/>
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="21"/>
+        <v>0.10434056761268781</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="22"/>
+        <v>0.10711225364181663</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="13" t="s">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="3">
         <v>0</v>
       </c>
-      <c r="H123" s="2"/>
+      <c r="H123" s="2">
+        <v>0.89790000000000003</v>
+      </c>
       <c r="I123" s="2">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+        <f t="shared" si="23"/>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" si="21"/>
+        <v>0.98475542882211009</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F124" s="14"/>
       <c r="G124" s="4">
         <v>1</v>
       </c>
-      <c r="H124" s="5"/>
+      <c r="H124" s="5">
+        <v>0.80430000000000001</v>
+      </c>
       <c r="I124" s="5">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
+        <f t="shared" si="23"/>
+        <v>0.10750000000000004</v>
+      </c>
+      <c r="J124" s="5">
+        <f t="shared" si="21"/>
+        <v>0.88210133801272206</v>
+      </c>
+      <c r="K124" s="5">
+        <f t="shared" si="22"/>
+        <v>0.89575676578683594</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F125" s="14"/>
       <c r="G125" s="4">
         <v>2</v>
       </c>
-      <c r="H125" s="5"/>
+      <c r="H125" s="5">
+        <v>0.67710000000000004</v>
+      </c>
       <c r="I125" s="5">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
+        <f t="shared" si="23"/>
+        <v>0.23470000000000002</v>
+      </c>
+      <c r="J125" s="5">
+        <f t="shared" si="21"/>
+        <v>0.74259706075893839</v>
+      </c>
+      <c r="K125" s="5">
+        <f t="shared" si="22"/>
+        <v>0.75409288339458735</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F126" s="14"/>
       <c r="G126" s="3">
         <v>3</v>
       </c>
-      <c r="H126" s="2"/>
+      <c r="H126" s="2">
+        <v>0.57230000000000003</v>
+      </c>
       <c r="I126" s="2">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="21"/>
+        <v>0.62765957446808507</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" si="22"/>
+        <v>0.63737609978839516</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F127" s="14"/>
       <c r="G127" s="3">
         <v>4</v>
       </c>
-      <c r="H127" s="2"/>
+      <c r="H127" s="2">
+        <v>0.44280000000000003</v>
+      </c>
       <c r="I127" s="2">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.46900000000000003</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" si="21"/>
+        <v>0.48563281421364335</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="22"/>
+        <v>0.49315068493150688</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F128" s="14"/>
       <c r="G128" s="3">
         <v>5</v>
       </c>
-      <c r="H128" s="2"/>
+      <c r="H128" s="2">
+        <v>0.32800000000000001</v>
+      </c>
       <c r="I128" s="2">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.5838000000000001</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" si="21"/>
+        <v>0.35972801052862469</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="22"/>
+        <v>0.36529680365296802</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="2">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="13"/>
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F129" s="14"/>
       <c r="G129" s="3">
         <v>6</v>
       </c>
-      <c r="H129" s="2"/>
+      <c r="H129" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I129" s="2">
-        <f t="shared" si="19"/>
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+        <f t="shared" si="23"/>
+        <v>0.81180000000000008</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" si="21"/>
+        <v>0.10967317394165386</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="22"/>
+        <v>0.11137097672346587</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4078,174 +4521,254 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="A133" s="11">
         <v>2</v>
       </c>
-      <c r="B133" s="10">
-        <v>1</v>
-      </c>
-      <c r="C133" s="10">
+      <c r="B133" s="11">
+        <v>1</v>
+      </c>
+      <c r="C133" s="11">
         <v>3</v>
       </c>
       <c r="D133" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="10" t="s">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="F133" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
       </c>
-      <c r="H133" s="2"/>
+      <c r="H133" s="2">
+        <v>0.85389999999999999</v>
+      </c>
       <c r="I133" s="2">
         <f>D133-H133</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+        <v>8.600000000000052E-3</v>
+      </c>
+      <c r="J133" s="2">
+        <f>H133/D133</f>
+        <v>0.99002898550724627</v>
+      </c>
+      <c r="K133" s="15">
+        <f>H133/E133</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="11"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="F134" s="12"/>
       <c r="G134" s="7">
         <v>1</v>
       </c>
-      <c r="H134" s="8"/>
+      <c r="H134" s="8">
+        <v>0.71319999999999995</v>
+      </c>
       <c r="I134" s="8">
-        <f t="shared" ref="I134:I140" si="20">D134-H134</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
+        <f t="shared" ref="I134:I140" si="24">D134-H134</f>
+        <v>0.1493000000000001</v>
+      </c>
+      <c r="J134" s="8">
+        <f t="shared" ref="J134:J155" si="25">H134/D134</f>
+        <v>0.82689855072463758</v>
+      </c>
+      <c r="K134" s="8">
+        <f t="shared" ref="K134:K155" si="26">H134/E134</f>
+        <v>0.83522660733106913</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="11"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="F135" s="12"/>
       <c r="G135" s="3">
         <v>2</v>
       </c>
-      <c r="H135" s="2"/>
+      <c r="H135" s="2">
+        <v>0.46260000000000001</v>
+      </c>
       <c r="I135" s="2">
-        <f t="shared" si="20"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+        <f t="shared" si="24"/>
+        <v>0.39990000000000003</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="25"/>
+        <v>0.53634782608695653</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="26"/>
+        <v>0.54174961939337163</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="12"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="F136" s="13"/>
       <c r="G136" s="3">
         <v>3</v>
       </c>
-      <c r="H136" s="2"/>
+      <c r="H136" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I136" s="2">
-        <f t="shared" si="20"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+        <f t="shared" si="24"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="25"/>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="26"/>
+        <v>0.11710973181871415</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="10" t="s">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
       </c>
-      <c r="H137" s="2"/>
+      <c r="H137" s="2">
+        <v>0.74199999999999999</v>
+      </c>
       <c r="I137" s="2">
-        <f t="shared" si="20"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+        <f t="shared" si="24"/>
+        <v>1.1999999999999789E-3</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="25"/>
+        <v>0.9983853606027987</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="11"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F138" s="12"/>
       <c r="G138" s="4">
         <v>1</v>
       </c>
-      <c r="H138" s="5"/>
+      <c r="H138" s="5">
+        <v>0.65439999999999998</v>
+      </c>
       <c r="I138" s="5">
-        <f t="shared" si="20"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
+        <f t="shared" si="24"/>
+        <v>8.879999999999999E-2</v>
+      </c>
+      <c r="J138" s="5">
+        <f t="shared" si="25"/>
+        <v>0.88051668460710442</v>
+      </c>
+      <c r="K138" s="5">
+        <f t="shared" si="26"/>
+        <v>0.8819407008086253</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="11"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F139" s="12"/>
       <c r="G139" s="3">
         <v>2</v>
       </c>
-      <c r="H139" s="2"/>
+      <c r="H139" s="2">
+        <v>0.4274</v>
+      </c>
       <c r="I139" s="2">
-        <f t="shared" si="20"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+        <f t="shared" si="24"/>
+        <v>0.31579999999999997</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="25"/>
+        <v>0.57508073196986009</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="26"/>
+        <v>0.57601078167115904</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="12"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F140" s="13"/>
       <c r="G140" s="3">
         <v>3</v>
       </c>
-      <c r="H140" s="2"/>
+      <c r="H140" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I140" s="2">
-        <f t="shared" si="20"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+        <f t="shared" si="24"/>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="25"/>
+        <v>0.13455328310010767</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="26"/>
+        <v>0.13477088948787064</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -4279,301 +4802,495 @@
         <v>9</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
+      <c r="A142" s="14">
         <v>4</v>
       </c>
-      <c r="B142" s="13">
+      <c r="B142" s="14">
         <v>2</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="14">
         <v>6</v>
       </c>
       <c r="D142" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="13" t="s">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2">
+        <v>0.85160000000000002</v>
+      </c>
       <c r="I142" s="2">
         <f>D142-H142</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+        <v>1.0900000000000021E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="25"/>
+        <v>0.98736231884057968</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F143" s="14"/>
       <c r="G143" s="7">
         <v>1</v>
       </c>
-      <c r="H143" s="8"/>
+      <c r="H143" s="8">
+        <v>0.80640000000000001</v>
+      </c>
       <c r="I143" s="8">
-        <f t="shared" ref="I143:I155" si="21">D143-H143</f>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
+        <f t="shared" ref="I143:I155" si="27">D143-H143</f>
+        <v>5.6100000000000039E-2</v>
+      </c>
+      <c r="J143" s="8">
+        <f t="shared" si="25"/>
+        <v>0.93495652173913035</v>
+      </c>
+      <c r="K143" s="8">
+        <f t="shared" si="26"/>
+        <v>0.94692343823391256</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F144" s="14"/>
       <c r="G144" s="7">
         <v>2</v>
       </c>
-      <c r="H144" s="8"/>
+      <c r="H144" s="8">
+        <v>0.73839999999999995</v>
+      </c>
       <c r="I144" s="8">
-        <f t="shared" si="21"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
+        <f t="shared" si="27"/>
+        <v>0.1241000000000001</v>
+      </c>
+      <c r="J144" s="8">
+        <f t="shared" si="25"/>
+        <v>0.85611594202898544</v>
+      </c>
+      <c r="K144" s="8">
+        <f t="shared" si="26"/>
+        <v>0.86707374354156874</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F145" s="14"/>
       <c r="G145" s="3">
         <v>3</v>
       </c>
-      <c r="H145" s="2"/>
+      <c r="H145" s="2">
+        <v>0.66020000000000001</v>
+      </c>
       <c r="I145" s="2">
-        <f t="shared" si="21"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.20230000000000004</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="25"/>
+        <v>0.76544927536231877</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="26"/>
+        <v>0.77524659464537338</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F146" s="14"/>
       <c r="G146" s="3">
         <v>4</v>
       </c>
-      <c r="H146" s="2"/>
+      <c r="H146" s="2">
+        <v>0.5413</v>
+      </c>
       <c r="I146" s="2">
-        <f t="shared" si="21"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.32120000000000004</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="25"/>
+        <v>0.62759420289855072</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="26"/>
+        <v>0.63562705495537808</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F147" s="14"/>
       <c r="G147" s="3">
         <v>5</v>
       </c>
-      <c r="H147" s="2"/>
+      <c r="H147" s="2">
+        <v>0.36880000000000002</v>
+      </c>
       <c r="I147" s="2">
-        <f t="shared" si="21"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="25"/>
+        <v>0.42759420289855071</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="26"/>
+        <v>0.43306716768435888</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="2">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="13"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="F148" s="14"/>
       <c r="G148" s="3">
         <v>6</v>
       </c>
-      <c r="H148" s="2"/>
+      <c r="H148" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I148" s="2">
-        <f t="shared" si="21"/>
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="25"/>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="26"/>
+        <v>0.11742602160638797</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="13" t="s">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F149" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="3">
         <v>0</v>
       </c>
-      <c r="H149" s="2"/>
+      <c r="H149" s="2">
+        <v>0.74360000000000004</v>
+      </c>
       <c r="I149" s="2">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+        <f t="shared" si="27"/>
+        <v>-4.0000000000006697E-4</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="25"/>
+        <v>1.0005382131324005</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
       <c r="D150" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F150" s="14"/>
       <c r="G150" s="4">
         <v>1</v>
       </c>
-      <c r="H150" s="5"/>
+      <c r="H150" s="5">
+        <v>0.71519999999999995</v>
+      </c>
       <c r="I150" s="5">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
+        <f t="shared" si="27"/>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="J150" s="5">
+        <f t="shared" si="25"/>
+        <v>0.96232508073196987</v>
+      </c>
+      <c r="K150" s="5">
+        <f t="shared" si="26"/>
+        <v>0.96180742334588476</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
       <c r="D151" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F151" s="14"/>
       <c r="G151" s="4">
         <v>2</v>
       </c>
-      <c r="H151" s="5"/>
+      <c r="H151" s="5">
+        <v>0.66620000000000001</v>
+      </c>
       <c r="I151" s="5">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
+        <f t="shared" si="27"/>
+        <v>7.6999999999999957E-2</v>
+      </c>
+      <c r="J151" s="5">
+        <f t="shared" si="25"/>
+        <v>0.89639397201291715</v>
+      </c>
+      <c r="K151" s="5">
+        <f t="shared" si="26"/>
+        <v>0.89591178052716514</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
       <c r="D152" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E152" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F152" s="14"/>
       <c r="G152" s="3">
         <v>3</v>
       </c>
-      <c r="H152" s="2"/>
+      <c r="H152" s="2">
+        <v>0.6119</v>
+      </c>
       <c r="I152" s="2">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.13129999999999997</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="25"/>
+        <v>0.82333153928955871</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" si="26"/>
+        <v>0.82288864981172671</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F153" s="14"/>
       <c r="G153" s="3">
         <v>4</v>
       </c>
-      <c r="H153" s="2"/>
+      <c r="H153" s="2">
+        <v>0.51449999999999996</v>
+      </c>
       <c r="I153" s="2">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.22870000000000001</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" si="25"/>
+        <v>0.69227664155005375</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="26"/>
+        <v>0.69190424959655716</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F154" s="14"/>
       <c r="G154" s="3">
         <v>5</v>
       </c>
-      <c r="H154" s="2"/>
+      <c r="H154" s="2">
+        <v>0.35139999999999999</v>
+      </c>
       <c r="I154" s="2">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" si="25"/>
+        <v>0.47282023681377827</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="26"/>
+        <v>0.4725658956428187</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
       <c r="D155" s="2">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="13"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F155" s="14"/>
       <c r="G155" s="3">
         <v>6</v>
       </c>
-      <c r="H155" s="2"/>
+      <c r="H155" s="2">
+        <v>0.1</v>
+      </c>
       <c r="I155" s="2">
-        <f t="shared" si="21"/>
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+        <f t="shared" si="27"/>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="25"/>
+        <v>0.13455328310010767</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="26"/>
+        <v>0.13448090371167296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="B133:B140"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="A142:A155"/>
+    <mergeCell ref="B142:B155"/>
+    <mergeCell ref="C142:C155"/>
+    <mergeCell ref="F142:F148"/>
+    <mergeCell ref="F149:F155"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="B107:B114"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F114"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="C116:C129"/>
+    <mergeCell ref="F116:F122"/>
+    <mergeCell ref="F123:F129"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="A90:A103"/>
+    <mergeCell ref="B90:B103"/>
+    <mergeCell ref="C90:C103"/>
+    <mergeCell ref="F90:F96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="A64:A77"/>
+    <mergeCell ref="B64:B77"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B51"/>
+    <mergeCell ref="C38:C51"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="F45:F51"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:A10"/>
@@ -4586,60 +5303,6 @@
     <mergeCell ref="C12:C25"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="F19:F25"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B51"/>
-    <mergeCell ref="C38:C51"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="F45:F51"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="A64:A77"/>
-    <mergeCell ref="B64:B77"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="F71:F77"/>
-    <mergeCell ref="A90:A103"/>
-    <mergeCell ref="B90:B103"/>
-    <mergeCell ref="C90:C103"/>
-    <mergeCell ref="F90:F96"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="A131:K131"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="B107:B114"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="F111:F114"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="F116:F122"/>
-    <mergeCell ref="F123:F129"/>
-    <mergeCell ref="A142:A155"/>
-    <mergeCell ref="B142:B155"/>
-    <mergeCell ref="C142:C155"/>
-    <mergeCell ref="F142:F148"/>
-    <mergeCell ref="F149:F155"/>
-    <mergeCell ref="A133:A140"/>
-    <mergeCell ref="B133:B140"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="F137:F140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
